--- a/biology/Médecine/Johann_Baptist_Friedreich/Johann_Baptist_Friedreich.xlsx
+++ b/biology/Médecine/Johann_Baptist_Friedreich/Johann_Baptist_Friedreich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johann Baptist Friedreich (né le 19 avril 1796 à Wurtzbourg – mort le 19 janvier 1862 dans la même ville) est un médecin et psychiatre bavarois. Il a été un membre influent de l'« école somatique » (somatic school) allemande[1]. Il est le fils de Nicolaus Anton Friedreich (1761–1836) et le père de Nikolaus Friedreich (1825–1882)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johann Baptist Friedreich (né le 19 avril 1796 à Wurtzbourg – mort le 19 janvier 1862 dans la même ville) est un médecin et psychiatre bavarois. Il a été un membre influent de l'« école somatique » (somatic school) allemande. Il est le fils de Nicolaus Anton Friedreich (1761–1836) et le père de Nikolaus Friedreich (1825–1882).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Friedreich étudie la médecine à l'université de Wurtzbourg, où il obtient son habilitation universitaire en 1820. En 1830, il est nommé professeur de physiologie à la même université. Deux ans plus tard, en 1832, on lui retire son poste, tout comme à Johann Lukas Schönlein et à Cajetan von Textor, pour des raisons politiques. Il exerce par la suite la médecine à Weißenburg, puis à Straubing, Ansbach et, finalement, à Erlangen, où il devient professeur en 1850[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Friedreich étudie la médecine à l'université de Wurtzbourg, où il obtient son habilitation universitaire en 1820. En 1830, il est nommé professeur de physiologie à la même université. Deux ans plus tard, en 1832, on lui retire son poste, tout comme à Johann Lukas Schönlein et à Cajetan von Textor, pour des raisons politiques. Il exerce par la suite la médecine à Weißenburg, puis à Straubing, Ansbach et, finalement, à Erlangen, où il devient professeur en 1850.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Versuch einer Literärgeschichte der Pathologie und Therapie der psychischen Krankheiten, 1830 – Essay on a literary history of the pathology and treatment of mental illness.
 (de) Systematische Literatur der ärztlichen und gerichtlichen Psychologie, 1832 – Systematic literature of medical and judicial psychology.
@@ -551,7 +567,7 @@
 (de) Zur Bibel. Naturhistorische, anthropologische und medicinische Fragmente, 1848 – The Bible; natural history, anthropological and medicinal fragments.
 (de) Die realien in der Jliade und Odyssee, 1851 – Realities in the Iliade and Odyssée.
 (de) Die symbolik und mythologie der natur, 1859 – The symbolism and mythology of nature.
-(de) Geschichte des Räthsels, 1860 – History of the Riddle[3].</t>
+(de) Geschichte des Räthsels, 1860 – History of the Riddle.</t>
         </is>
       </c>
     </row>
